--- a/capture/namebook.xlsx
+++ b/capture/namebook.xlsx
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
